--- a/Docs/SonarCloud-SJC-ARC.xlsx
+++ b/Docs/SonarCloud-SJC-ARC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SonarCould Analysis" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ARC Web Service DB" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ARC Galaxy DB'!$A$1:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARC STAR DB'!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="217">
   <si>
     <t>Project</t>
   </si>
@@ -516,9 +517,6 @@
   </si>
   <si>
     <t>All calling objects must be checked should any parameters be removed.</t>
-  </si>
-  <si>
-    <t>Procedure has 16 parameters, which is greater than the 10 authorized.</t>
   </si>
   <si>
     <t>A long parameter list can indicate that a new structure should be created to wrap the numerous parameters or that the function or procedure is doing too many things.</t>
@@ -658,6 +656,39 @@
   </si>
   <si>
     <t>Private methods are clearly intended for use only within their own scope. When such methods return values that are never used by any of their callers, then clearly there is no need to actually make the return, and it should be removed in the interests of efficiency and clarity.</t>
+  </si>
+  <si>
+    <t>Remove this unreachable code.</t>
+  </si>
+  <si>
+    <t>Move the unreachable code to before the jump, or remove it altogether. Jump statements (BREAK, CONTINUE, RETURN, GOTO, and THROW), move control flow out of the current code block. So any statements that come after a jump are dead code.</t>
+  </si>
+  <si>
+    <t>Jump statements (BREAK, CONTINUE, RETURN, GOTO, and THROW), move control flow out of the current code block. So any statements that come after a jump are dead code.</t>
+  </si>
+  <si>
+    <t>Rewrite this to use "NOT EXISTS"; "EntityState" may be nullable</t>
+  </si>
+  <si>
+    <t>Move 'StoredProcedures' into a named namespace.</t>
+  </si>
+  <si>
+    <t>Correct one of the identical sub-expressions on both sides of operator "OR"</t>
+  </si>
+  <si>
+    <t>Declare variable on a separate line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the unused parameter </t>
+  </si>
+  <si>
+    <t>Procedure  has more parameters than the 10 authorized.</t>
+  </si>
+  <si>
+    <t>Procedure has more parameters than the 10 authorized.</t>
+  </si>
+  <si>
+    <t>Add logic to this CATCH clause or eliminate it and rethrow the exception automatically.</t>
   </si>
 </sst>
 </file>
@@ -2125,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -2282,7 +2313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -2314,7 +2345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -2338,6 +2369,9 @@
       </c>
       <c r="I6" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>133</v>
@@ -2381,7 +2415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -2713,12 +2747,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>55</v>
@@ -2730,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>66</v>
@@ -2753,7 +2787,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>55</v>
@@ -2765,7 +2799,7 @@
         <v>82</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>71</v>
@@ -2774,7 +2808,7 @@
         <v>71</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>117</v>
@@ -2785,7 +2819,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>55</v>
@@ -2797,7 +2831,7 @@
         <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>71</v>
@@ -2806,7 +2840,7 @@
         <v>66</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>117</v>
@@ -2817,7 +2851,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
@@ -2826,10 +2860,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>66</v>
@@ -2841,7 +2875,7 @@
         <v>68</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>117</v>
@@ -2852,7 +2886,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
@@ -2896,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>66</v>
@@ -2916,7 +2950,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>55</v>
@@ -2960,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>66</v>
@@ -2980,7 +3014,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>55</v>
@@ -2989,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>66</v>
@@ -3007,12 +3041,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>55</v>
@@ -3021,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>71</v>
@@ -3085,7 +3119,7 @@
         <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>71</v>
@@ -3105,7 +3139,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>55</v>
@@ -3149,7 +3183,7 @@
         <v>108</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>71</v>
@@ -3164,12 +3198,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
@@ -3178,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>71</v>
@@ -3201,7 +3235,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>53</v>
@@ -3210,10 +3244,10 @@
         <v>228</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>71</v>
@@ -3233,7 +3267,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>53</v>
@@ -3277,7 +3311,7 @@
         <v>97</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>71</v>
@@ -3309,7 +3343,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>71</v>
@@ -3329,7 +3363,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>53</v>
@@ -3341,7 +3375,7 @@
         <v>84</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>71</v>
@@ -3353,7 +3387,7 @@
         <v>68</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>117</v>
@@ -3428,7 +3462,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>53</v>
@@ -3440,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>71</v>
@@ -3460,7 +3494,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>53</v>
@@ -3469,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>71</v>
@@ -3492,7 +3526,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -3501,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>66</v>
@@ -3524,7 +3558,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -3533,10 +3567,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>66</v>
@@ -3624,12 +3658,499 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="30.28515625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4">
+        <v>128</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Docs/SonarCloud-SJC-ARC.xlsx
+++ b/Docs/SonarCloud-SJC-ARC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SonarCould Analysis" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
   <si>
     <t>Project</t>
   </si>
@@ -689,6 +689,39 @@
   </si>
   <si>
     <t>Add logic to this CATCH clause or eliminate it and rethrow the exception automatically.</t>
+  </si>
+  <si>
+    <t>Remove this empty statement.</t>
+  </si>
+  <si>
+    <t>Correct this '&amp;' to '&amp;&amp;'</t>
+  </si>
+  <si>
+    <t>Complete the task associated to this "TODO" comment.</t>
+  </si>
+  <si>
+    <t>Remove this use of "sysfiles"</t>
+  </si>
+  <si>
+    <t>Deprecated system tables and views should not be used</t>
+  </si>
+  <si>
+    <t>Change to a supported feature. Deprecated system tables and views are those that have been retained temporarily for backward compatibility, but which will eventually be removed from the language.</t>
+  </si>
+  <si>
+    <t>[ARC/Galaxy/Source] Provide an 'AssemblyVersion' attribute for this assembly.</t>
+  </si>
+  <si>
+    <t>List the columns to be set in this "INSERT" statement.</t>
+  </si>
+  <si>
+    <t>"INSERT" statements should explicitly list the columns to be set</t>
+  </si>
+  <si>
+    <t>An INSERT statement that does not explicitly list the columns being inserted into, as well as the values being inserted, is dependent for correct functioning on the structure of the table not changing</t>
+  </si>
+  <si>
+    <t>Use BEGIN...END or indentation to denote the code conditionally executed by this "IF".</t>
   </si>
 </sst>
 </file>
@@ -2156,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2553,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -2641,6 +2674,9 @@
       <c r="I14" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2648,7 +2684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -2782,7 +2818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2807,6 +2843,9 @@
       <c r="I19" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="J19" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="L19" s="4" t="s">
         <v>165</v>
       </c>
@@ -2839,6 +2878,9 @@
       <c r="I20" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="J20" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="L20" s="4" t="s">
         <v>166</v>
       </c>
@@ -2846,7 +2888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -3660,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,6 +4015,9 @@
       <c r="J9" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="M9" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4002,6 +4047,9 @@
       <c r="J10" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -4031,6 +4079,9 @@
       <c r="J11" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="M11" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -4060,93 +4111,360 @@
       <c r="J12" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/SonarCloud-SJC-ARC.xlsx
+++ b/Docs/SonarCloud-SJC-ARC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="791" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SonarCould Analysis" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ARC Galaxy DB'!$A$1:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARC STAR DB'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ARC Web'!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="344">
   <si>
     <t>Project</t>
   </si>
@@ -722,6 +723,368 @@
   </si>
   <si>
     <t>Use BEGIN...END or indentation to denote the code conditionally executed by this "IF".</t>
+  </si>
+  <si>
+    <t>Do not use "undefined" to declare a parameter - use another name</t>
+  </si>
+  <si>
+    <t>Special identifiers should not be bound or assigned</t>
+  </si>
+  <si>
+    <t>JavaScript has special identifiers that, while not reserved, still should not be used as identifiers. They include:
+eval - evaluates a string as JavaScript code
+arguments - used to access function arguments through indexed properties.
+undefined - returned for values and properties that have not yet been assigned
+NaN - Not a Number; returned when math functions fail.
+Infinity - when a number exceeds the upper limit of the floating point numbers</t>
+  </si>
+  <si>
+    <t>Refactor or remove this statement</t>
+  </si>
+  <si>
+    <t>Non-empty statements should change control flow or have at least one side-effect</t>
+  </si>
+  <si>
+    <t>Any statement (other than a null statement, which means a statement containing only a semicolon ;) which has no side effect and does not result in a change of control flow will normally indicate a programming error, and therefore should be refactored.</t>
+  </si>
+  <si>
+    <t>TypeError can be thrown as "time" might be null or undefined here.</t>
+  </si>
+  <si>
+    <t>Properties of variables with "null" or "undefined" values should not be accessed</t>
+  </si>
+  <si>
+    <t>When a variable is assigned an undefined or null value, it has no properties. Trying to access properties of such a variable anyway results in a TypeError, causing abrupt termination of the script if the error is not caught in a catch block.</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Remove this "!==" check; it will always be true. Did you mean to use "!="?</t>
+  </si>
+  <si>
+    <t>Strict equality operators should not be used with dissimilar types</t>
+  </si>
+  <si>
+    <t>Comparing dissimilar types using the strict equality operators === and !== will always return the same value, respectively false and true, because no type conversion is done before the comparison</t>
+  </si>
+  <si>
+    <t>This function expects 1 argument, but 2 were provided</t>
+  </si>
+  <si>
+    <t>Function calls should not pass extra arguments</t>
+  </si>
+  <si>
+    <t>You can easily call a JavaScript function with more arguments than the function needs, but the extra arguments will be just ignored by function execution.</t>
+  </si>
+  <si>
+    <t>Replace this &lt;i&gt; tag by &lt;em&gt;</t>
+  </si>
+  <si>
+    <t>"&lt;strong&gt;" and "&lt;em&gt;" tags should be used</t>
+  </si>
+  <si>
+    <t>The &lt;strong&gt;/&lt;b&gt; and &lt;em&gt;/&lt;i&gt; tags have exactly the same effect in most web browsers, but there is a fundamental difference between them</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Change this condition so that it does not always evaluate to "true"; some subsequent code is never executed.</t>
+  </si>
+  <si>
+    <t>Conditionally executed blocks should be reachable</t>
+  </si>
+  <si>
+    <t>Conditional expressions which are always true or false can lead to dead code. Such code is always buggy and should never be used in production.</t>
+  </si>
+  <si>
+    <t>Add an "alt" attribute to this image.</t>
+  </si>
+  <si>
+    <t>Image, area and button with image tags should have an "alt" attribute</t>
+  </si>
+  <si>
+    <t>The alt attribute provides a textual alternative to an image.
+It is used whenever the actual image cannot be rendered.</t>
+  </si>
+  <si>
+    <t>model' is null on at least one execution path.</t>
+  </si>
+  <si>
+    <t>Null pointers should not be dereferenced</t>
+  </si>
+  <si>
+    <t>A reference to null should never be dereferenced/accessed. Doing so will cause a NullReferenceException to be thrown. At best, such an exception will cause abrupt program termination. At worst, it could expose debugging information that would be useful to an attacker, or it could allow an attacker to bypass security measures.</t>
+  </si>
+  <si>
+    <t>This expression might have a value which cannot be called; it might not be a function</t>
+  </si>
+  <si>
+    <t>Calls should not be made to non-callable values</t>
+  </si>
+  <si>
+    <t>Check the function calls. The fact that JavaScript is not a strongly typed language allows developers a lot of freedom, but that freedom can be dangerous if you go too far with it.</t>
+  </si>
+  <si>
+    <t>Rename or remove duplicate property name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property names should not be duplicated within a class or object literal
+</t>
+  </si>
+  <si>
+    <t>Deduplicate the naming. JavaScript allows duplicate property names in classes and object literals, but only the last instance of a duplicated name determines the actual value that will be used for it</t>
+  </si>
+  <si>
+    <t>Remove this use of the output from "changeSidebar"; "changeSidebar" doesn't return anything. Also  remove this use of the output from "changeNavbar"; "changeNavbar" doesn't return anything</t>
+  </si>
+  <si>
+    <t>The output of functions that don't return anything should not be used</t>
+  </si>
+  <si>
+    <t>If a function does not return anything, it makes no sense to use its output</t>
+  </si>
+  <si>
+    <t>Correct one of the identical sub-expressions on both sides of operator "/"</t>
+  </si>
+  <si>
+    <t>Jump statements (return, break and continue) and throw expressions move control flow out of the current code block. So any statements that come after a jump are dead code.</t>
+  </si>
+  <si>
+    <t>The return value of "map" must be used</t>
+  </si>
+  <si>
+    <t>Return values from functions without side effects should not be ignored</t>
+  </si>
+  <si>
+    <t>When the call to a function doesn't have any side effects, what is the point of making the call if the results are ignored?</t>
+  </si>
+  <si>
+    <t>There is no reason to re-assign a variable to itself. Either this statement is redundant and should be removed, or the re-assignment is a mistake and some other value or variable was intended for the assignment instead.</t>
+  </si>
+  <si>
+    <t>Add "lang" and/or "xml:lang" attributes to this "&lt;html&gt;" element</t>
+  </si>
+  <si>
+    <t>"&lt;html&gt;" element should have a language attribute</t>
+  </si>
+  <si>
+    <t>The &lt;html&gt; element should provide the lang and/or xml:lang attribute in order to identify the default language of a document.</t>
+  </si>
+  <si>
+    <t>Use a test of the format "a == a" instead</t>
+  </si>
+  <si>
+    <t>"NaN" should not be used in comparisons</t>
+  </si>
+  <si>
+    <t>NaN is not equal to anything, even itself. Testing for equality or inequality against NaN will yield predictable results, but probably not the ones you want.</t>
+  </si>
+  <si>
+    <t>This conditional operation returns the same value whether the condition is "true" or "false"</t>
+  </si>
+  <si>
+    <t>Having all branches in a switch or if chain with the same implementation is an error.</t>
+  </si>
+  <si>
+    <t>Remove this "return" statement from this "finally" block</t>
+  </si>
+  <si>
+    <t>Jump statements should not occur in "finally" blocks</t>
+  </si>
+  <si>
+    <t>Using return, break, throw, and continue from a finally block overwrites similar statements from the suspended try and catch blocks.</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>Make this field 'private' and encapsulate it in a 'public' property.</t>
+  </si>
+  <si>
+    <t>Set the 'HttpOnly' property of this cookie to 'true'.</t>
+  </si>
+  <si>
+    <t>Fields should not have public accessibility</t>
+  </si>
+  <si>
+    <t>"HttpOnly" should be set on cookies</t>
+  </si>
+  <si>
+    <t>"alert(...)" should not be used</t>
+  </si>
+  <si>
+    <t>Unexpected prompt alert / confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HttpOnly cookie attribute tells the browser to prevent client-side scripts from reading cookies with the attribute, and its use can go a long way to defending against Cross-Site Scripting (XSS) attacks. </t>
+  </si>
+  <si>
+    <t>Public fields in public classes do not respect the encapsulation principle and has three main disadvantages:
+Additional behavior such as validation cannot be added.
+The internal representation is exposed, and cannot be changed afterwards.
+Member values are subject to change from anywhere in the code and may not meet the programmer's assumptions.</t>
+  </si>
+  <si>
+    <t>alert(...) as well as confirm(...) and prompt(...) can be useful for debugging during development, but in production mode this kind of pop-up could expose sensitive information to attackers, and should never be displayed.</t>
+  </si>
+  <si>
+    <t>Security Hotspot</t>
+  </si>
+  <si>
+    <t>Make sure that using a regular expression is safe here</t>
+  </si>
+  <si>
+    <t>To Review</t>
+  </si>
+  <si>
+    <t>Using regular expressions is security-sensitive</t>
+  </si>
+  <si>
+    <t>Evaluating regular expressions against input strings is potentially an extremely CPU-intensive task. Ensure it is necessary</t>
+  </si>
+  <si>
+    <t>Make sure that this dynamic injection or execution of code is safe</t>
+  </si>
+  <si>
+    <t>Dynamically executing code is security-sensitive</t>
+  </si>
+  <si>
+    <t>Review secuirty aroundthis code. Some APIs enable the execution of dynamic code by providing it as strings at runtime.</t>
+  </si>
+  <si>
+    <t>Make sure that permissions are controlled safely here</t>
+  </si>
+  <si>
+    <t>Controlling permissions is security-sensitive</t>
+  </si>
+  <si>
+    <t>Attackers can only damage what they have access to. Thus limiting their access is a good way to prevent them from wreaking havoc, but it has to be done properly.</t>
+  </si>
+  <si>
+    <t>Make sure that using this pseudorandom number generator is safe here.</t>
+  </si>
+  <si>
+    <t>Using pseudorandom number generators (PRNGs) is security-sensitive</t>
+  </si>
+  <si>
+    <t>When software generates predictable values in a context requiring unpredictability, it may be possible for an attacker to guess the next value that will be generated, and use this guess to impersonate another user or access sensitive information.</t>
+  </si>
+  <si>
+    <t>Make sure that command line arguments are used safely here</t>
+  </si>
+  <si>
+    <t>Using command line arguments is security-sensitive</t>
+  </si>
+  <si>
+    <t>Command line arguments can be dangerous just like any other user input. They should never be used without being first validated and sanitized.</t>
+  </si>
+  <si>
+    <t>Make sure creating this cookie without setting the 'Secure' property is safe here.</t>
+  </si>
+  <si>
+    <t>Creating cookies without the "secure" flag is security-sensitive</t>
+  </si>
+  <si>
+    <t>The "secure" attribute prevents cookies from being sent over plaintext connections such as HTTP, where they would be easily eavesdropped upon. Instead, cookies with the secure attribute are only sent over encrypted HTTPS connections.</t>
+  </si>
+  <si>
+    <t>Make sure that this cookie is written safely.</t>
+  </si>
+  <si>
+    <t>Attackers can use widely-available tools to read cookies, sensitive information written by the server will be exposed.</t>
+  </si>
+  <si>
+    <t>Writing cookies is security-sensitive</t>
+  </si>
+  <si>
+    <t>Add the "let", "const" or "var" keyword to this variable declaration to make it explicit</t>
+  </si>
+  <si>
+    <t>Variables should be declared explicitly</t>
+  </si>
+  <si>
+    <t>JavaScript variable scope can be particularly difficult to understand and get right. The situation gets even worse when you consider the accidental creation of global variables, which is what happens when you declare a variable inside a function or the for clause of a for-loop without using the let, const or var keywords.</t>
+  </si>
+  <si>
+    <t>End this switch case with an unconditional break, continue, return or throw statement.</t>
+  </si>
+  <si>
+    <t>Switch cases should end with an unconditional "break" statement</t>
+  </si>
+  <si>
+    <t>When the execution is not explicitly terminated at the end of a switch case, it continues to execute the statements of the following case. While this is sometimes intentional, it often is a mistake which leads to unexpected behavior.</t>
+  </si>
+  <si>
+    <t>Refactor this method to not always return the same value.</t>
+  </si>
+  <si>
+    <t>Function returns should not be invariant</t>
+  </si>
+  <si>
+    <t>When a function is designed to return an invariant value, it may be poor design, but it shouldn't adversely affect the outcome of your program. However, when it happens on all paths through the logic, it is likely a mistake.
+This rule raises an issue when a function contains several return statements that all return the same value.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity to the 15 allowed</t>
+  </si>
+  <si>
+    <t>Review the code. Cognitive Complexity is a measure of how hard the control flow of a method is to understand. Methods with high Cognitive Complexity will be difficult to maintain.</t>
+  </si>
+  <si>
+    <t>Rename parameter  to match the interface declaration</t>
+  </si>
+  <si>
+    <t>The name of a parameter in an externally visible method override does not match the name of the parameter in the base declaration of the method, or the name of the parameter in the interface declaration of the method or the name of any other partial definition.</t>
+  </si>
+  <si>
+    <t>Add a nested comment explaining why this method is empty, throw a 'NotSupportedException' or complete the implementation</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t>There are several reasons for a method not to have a method body:
+It is an unintentional omission, and should be fixed.
+It is not yet, or never will be, supported. In this case a NotSupportedException should be thrown.
+The method is an intentionally-blank override. In this case a nested comment should explain the reason for the blank override.</t>
+  </si>
+  <si>
+    <t>Either change the type of 'channelDispatchers' to 'ChannelDispatcherBase' or iterate on a generic collection of type 'ChannelDispatcher'</t>
+  </si>
+  <si>
+    <t>"Explicit" conversions of "foreach" loops should not be used</t>
+  </si>
+  <si>
+    <t>The foreach statement was introduced in the C# language prior to generics to make it easier to work with the non-generic collections available at that time such as ArrayList. The foreach statements allows you to downcast elements of a collection of Objects to any other type. The problem is that to achieve the cast, the foreach statements silently performs explicit type conversion, which at runtime can result in an InvalidCastException.</t>
+  </si>
+  <si>
+    <t>Change the visibility of 'WebUi' or make it 'const' or 'readonly'</t>
+  </si>
+  <si>
+    <t>Non-constant static fields should not be visible</t>
+  </si>
+  <si>
+    <t>A static field that is neither constant nor read-only is not thread-safe. Correctly accessing these fields from different threads needs synchronization with locks. Improper synchronization may lead to unexpected results, thus publicly visible static fields are best suited for storing non-changing data shared by many consumers. To enforce this intent, these fields should be marked readonly or converted to constants.</t>
+  </si>
+  <si>
+    <t>Use curly braces or indentation to denote the code conditionally executed by this "if"</t>
+  </si>
+  <si>
+    <t>A conditionally executed single line should be denoted by indentation</t>
+  </si>
+  <si>
+    <t>In the absence of enclosing curly braces, the line immediately after a conditional is the one that is conditionally executed. By both convention and good practice, such lines are indented. In the absence of both curly braces and indentation the intent of the original programmer is entirely unclear and perhaps not actually what is executed. Additionally, such code is highly likely to be confusing to maintainers.</t>
+  </si>
+  <si>
+    <t>Move this "if" to a new line or add the missing "else".</t>
+  </si>
+  <si>
+    <t>Conditionals should start on new lines</t>
+  </si>
+  <si>
+    <t>Code is clearest when each statement has its own line. Nonetheless, it is a common pattern to combine on the same line an if and its resulting then statement. However, when an if is placed on the same line as the closing } from a preceding else or else if, it is either an error - else is missing - or the invitation to a future error as maintainers fail to understand that the two statements are unconnected.</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -3703,7 +4066,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,13 +4838,1353 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="18.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="4"/>
+    <col min="13" max="13" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4">
+        <v>375</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
